--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New5VIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New5VIN_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Desktop\SUITE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -224,7 +224,7 @@
     <t>SYMBOL_2000</t>
   </si>
   <si>
-    <t>EEENK3CC&amp;F</t>
+    <t>EEENK2CC&amp;F</t>
   </si>
 </sst>
 </file>
@@ -570,12 +570,12 @@
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New5VIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New5VIN_CA_SELECT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,207 +24,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>VIN</t>
   </si>
   <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>MAKE</t>
+  </si>
+  <si>
+    <t>MAKE_TEXT</t>
+  </si>
+  <si>
+    <t>MODEL_TEXT</t>
+  </si>
+  <si>
+    <t>SERIES_TEXT</t>
+  </si>
+  <si>
+    <t>MFG_BAS_MSRP</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>BODYTYPE_TEXT</t>
+  </si>
+  <si>
+    <t>SEGMENTATION_CD</t>
+  </si>
+  <si>
+    <t>BODY_STYLE_CD</t>
+  </si>
+  <si>
+    <t>BODYSHELL</t>
+  </si>
+  <si>
+    <t>ENGINE_NAME</t>
+  </si>
+  <si>
+    <t>NUMOFCYLINDERS</t>
+  </si>
+  <si>
+    <t>ENG_FUEL_CD</t>
+  </si>
+  <si>
+    <t>ENG_DISPLCMNT_CI</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>WHEELDRIVE</t>
+  </si>
+  <si>
+    <t>RESTRAINTSCODE</t>
+  </si>
+  <si>
+    <t>RESTRAINTSCODE_TEXT</t>
+  </si>
+  <si>
+    <t>ANTILOCKCODE</t>
+  </si>
+  <si>
+    <t>ANTILOCKCODE_TEXT</t>
+  </si>
+  <si>
+    <t>ANTITHEFTCODE</t>
+  </si>
+  <si>
+    <t>ANTITHEFTCODE_TEXT</t>
+  </si>
+  <si>
+    <t>COLL_SYMBOL</t>
+  </si>
+  <si>
+    <t>COMP_SYMBOL</t>
+  </si>
+  <si>
+    <t>ALTFUEL</t>
+  </si>
+  <si>
+    <t>MDX ADVANCE</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>2WD</t>
+  </si>
+  <si>
+    <t>000R</t>
+  </si>
+  <si>
+    <t>DUAL AIR BAGS FRONT</t>
+  </si>
+  <si>
+    <t>4 WHEEL STANDARD</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>4.5L V10</t>
+  </si>
+  <si>
+    <t>BI_SYMBOL</t>
+  </si>
+  <si>
+    <t>PD_SYMBOL</t>
+  </si>
+  <si>
+    <t>UM_SYMBOL</t>
+  </si>
+  <si>
+    <t>MP_SYMBOL</t>
+  </si>
+  <si>
+    <t>ENTRYDATE</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>ANTITHEFT_DISCOUNT</t>
+  </si>
+  <si>
+    <t>RESTRAINTS_DISCOUNT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CA_MAKE</t>
+  </si>
+  <si>
+    <t>CA_MAKE_TEXT</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>invalidVIN</t>
+  </si>
+  <si>
+    <t>SecondValid</t>
+  </si>
+  <si>
+    <t>ThirdValid</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>EEENK2CC&amp;F</t>
+  </si>
+  <si>
     <t>VERSION</t>
   </si>
   <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>MAKE</t>
-  </si>
-  <si>
-    <t>MAKE_TEXT</t>
-  </si>
-  <si>
-    <t>MODEL_TEXT</t>
-  </si>
-  <si>
-    <t>SERIES_TEXT</t>
-  </si>
-  <si>
-    <t>MFG_BAS_MSRP</t>
-  </si>
-  <si>
-    <t>BODY</t>
-  </si>
-  <si>
-    <t>BODYTYPE_TEXT</t>
-  </si>
-  <si>
-    <t>SEGMENTATION_CD</t>
-  </si>
-  <si>
-    <t>BODY_STYLE_CD</t>
-  </si>
-  <si>
-    <t>BODYSHELL</t>
-  </si>
-  <si>
-    <t>ENGINE_NAME</t>
-  </si>
-  <si>
-    <t>NUMOFCYLINDERS</t>
-  </si>
-  <si>
-    <t>ENG_FUEL_CD</t>
-  </si>
-  <si>
-    <t>ENG_DISPLCMNT_CI</t>
-  </si>
-  <si>
-    <t>WD</t>
-  </si>
-  <si>
-    <t>WHEELDRIVE</t>
-  </si>
-  <si>
-    <t>RESTRAINTSCODE</t>
-  </si>
-  <si>
-    <t>RESTRAINTSCODE_TEXT</t>
-  </si>
-  <si>
-    <t>ANTILOCKCODE</t>
-  </si>
-  <si>
-    <t>ANTILOCKCODE_TEXT</t>
-  </si>
-  <si>
-    <t>ANTITHEFTCODE</t>
-  </si>
-  <si>
-    <t>ANTITHEFTCODE_TEXT</t>
-  </si>
-  <si>
-    <t>COLL_SYMBOL</t>
-  </si>
-  <si>
-    <t>COMP_SYMBOL</t>
-  </si>
-  <si>
-    <t>ALTFUEL</t>
-  </si>
-  <si>
-    <t>MDX ADVANCE</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>SUV</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>2WD</t>
-  </si>
-  <si>
-    <t>000R</t>
-  </si>
-  <si>
-    <t>DUAL AIR BAGS FRONT</t>
-  </si>
-  <si>
-    <t>4 WHEEL STANDARD</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Gt</t>
-  </si>
-  <si>
-    <t>4.5L V10</t>
-  </si>
-  <si>
-    <t>BI_SYMBOL</t>
-  </si>
-  <si>
-    <t>PD_SYMBOL</t>
-  </si>
-  <si>
-    <t>UM_SYMBOL</t>
-  </si>
-  <si>
-    <t>MP_SYMBOL</t>
-  </si>
-  <si>
-    <t>ENTRYDATE</t>
-  </si>
-  <si>
-    <t>VALID</t>
-  </si>
-  <si>
-    <t>ANTITHEFT_DISCOUNT</t>
-  </si>
-  <si>
-    <t>RESTRAINTS_DISCOUNT</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CA_MAKE</t>
-  </si>
-  <si>
-    <t>CA_MAKE_TEXT</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>invalidVIN</t>
-  </si>
-  <si>
-    <t>SecondValid</t>
-  </si>
-  <si>
-    <t>ThirdValid</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
     <t>SYMBOL_2000</t>
-  </si>
-  <si>
-    <t>EEENK2CC&amp;F</t>
   </si>
 </sst>
 </file>
@@ -567,114 +555,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="28" max="29" width="16.28515625" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.88671875" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" customWidth="1"/>
+    <col min="23" max="23" width="20.88671875" customWidth="1"/>
+    <col min="24" max="24" width="34.6640625" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -683,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>42</v>
@@ -706,467 +692,445 @@
       <c r="AJ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2">
         <v>53080</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2">
         <v>8</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="2">
         <v>214</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" s="2">
         <v>2</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="V2" s="2">
         <v>2</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>38</v>
+      <c r="Z2" s="2">
+        <v>41</v>
       </c>
       <c r="AA2" s="2">
         <v>41</v>
       </c>
-      <c r="AB2" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="AD2" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2">
+        <v>50</v>
+      </c>
+      <c r="AG2">
         <v>20010101</v>
       </c>
+      <c r="AH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
         <v>53080</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2">
         <v>8</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="2">
         <v>214</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="2">
         <v>2</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="V3" s="2">
         <v>2</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>38</v>
+      <c r="Z3" s="2">
+        <v>41</v>
       </c>
       <c r="AA3" s="2">
         <v>41</v>
       </c>
-      <c r="AB3" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="AD3" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3">
+        <v>54</v>
+      </c>
+      <c r="AG3">
         <v>20000101</v>
       </c>
+      <c r="AH3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>53080</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2">
         <v>8</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="2">
         <v>214</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" s="2">
         <v>2</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="V4" s="2">
         <v>2</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>38</v>
+      <c r="Z4" s="2">
+        <v>41</v>
       </c>
       <c r="AA4" s="2">
         <v>41</v>
       </c>
-      <c r="AB4" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="AD4" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI4">
+        <v>53</v>
+      </c>
+      <c r="AG4">
         <v>20150101</v>
       </c>
+      <c r="AH4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2">
         <v>53080</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O5" s="2">
         <v>8</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="2">
         <v>214</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="2">
         <v>2</v>
       </c>
       <c r="T5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="V5" s="2">
         <v>2</v>
       </c>
       <c r="W5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>60</v>
+      <c r="Z5" s="2">
+        <v>41</v>
       </c>
       <c r="AA5" s="2">
         <v>41</v>
       </c>
-      <c r="AB5" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="AD5" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI5">
+        <v>55</v>
+      </c>
+      <c r="AG5">
         <v>20190101</v>
       </c>
+      <c r="AH5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
